--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_fmout_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_fmout_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1155">
   <si>
     <t>zh_CN</t>
   </si>
@@ -1177,6 +1177,2310 @@
   </si>
   <si>
     <t xml:space="preserve">[name="远山"]  （希望我的运势真的能帮到你，可颂。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">週末
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロドス食堂
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  要するに、こうするとじゃな――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  カードが自然とこちらの手から流れるように――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  こちらの手に落ちる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  わあ～！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  わかったか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  わかんない！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  ギターノお姉ちゃん、もう一回やって！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ふむ……では、よーく見ておくのじゃぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  わかった――！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ちゃんと見えたか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  全然見えなーい！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  やれやれ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  残念じゃが、今日のカードの授業はおしまいじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  えぇー！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  もうちょっとだけ！　お願い！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  わらわが次の授業の先生に叱られてしまうじゃろうが。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  皆もわらわが叱られるのは見たくないじゃろう？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  ちょっとだけ！　ちょっとだけだから、大丈夫だよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  決まり事は大切なものじゃ。己の欲望に任せて、それをないがしろにしてはならぬ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ふむ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  それでは、皆に宿題を出すとしよう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  もし来週の授業で己の練習の成果を発表できる者がおれば……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  その子には――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  先生の宝箱からご褒美を取らせてやろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  宝箱？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  ほんとに！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  本当じゃ。ちょうど最近、宝箱に面白いものを入れたところじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  勇気を出して皆の前で発表すれば、誰もが褒美をもらえるぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  やったー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ほれ、授業はこれでおしまいじゃ。皆自分のカードとおもちゃを、忘れずに持って帰るんじゃぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ではまた来週会おう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  先生さようなら！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ふぅ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あらら、ホンマお疲れさんやな、授業は順調なん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  授業などと呼べるような代物ではないわ。実際は子供たちと一緒に遊んでおるだけじゃよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  わらわなどより、おぬしの方こそ重い荷を担いでおるじゃろうて。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  子供たちに四則演算を教えるのは、頭も体力も要るじゃろ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  大したことあらへんて。計算なんか、たくさんやれば覚えるもんやから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  それにウチが教えとるのは計算とは言わへん。うーん、最初は何て言うてたかな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  「経営教室」？　そないな感じやった気がするわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  実際はあんたはんの授業と同じや……一緒にただ遊んどるだけで、勉強なんかしてへんて。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  それは良いことじゃよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  商売とは残酷なものじゃからのう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あんたはん、ようわかっとるやないか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  不本意ながら、占いも本質的にはある種の商売じゃからのう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  確かにそうやな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  では、おぬしの授業の邪魔にならぬよう、わらわはそろそろ行くとするかのう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほな……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ――あ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  せや！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ギターノはん、ちょお待ってんか！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  まだ何か用かの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  うん。ほれ、旦那さんがガヴィルはんたちと遠出するらしいやん、サルゴンの僻地に行くっちゅーて……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ああ、そうじゃな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほんでウチもな、一緒について行くつもりやねんけど、そのついでにそこで商売できるか見てこよ思ってんねん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  なるほど。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  せやからな、あー、アレや……ちょこーっと融通利かせて――ウチのこと占ってもらえへんやろか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  わかっておるじゃろうが――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あー、もちろんわかっとる。せやけど……うん、つまりやな――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  お金は全部仕入れに使うてしもて、今手持ちがホンマにないんや。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  はぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  分かった。報酬として金銭は求めぬ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ホンマに？　そら助かるわぁ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  じゃが一つ約束してくれ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  今度から――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  授業の時に子供たちに商品の売り込みはせぬと約束するんじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  たとえお菓子であろうと、ダメじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あ……はは。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  んな殺生な。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  授業はお遊びみたいなモンやけど、ウチはちゃんと教えとるで。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  遊びか真面目か、わらわにとってそんなことはどうでもよい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  この約束を対価とすることにおぬしが同意するか、わらわにとって問題になるのはそれだけじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  もし約束を破ったら？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  さぁ、どうなるであろうのう？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  うぅ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  どうじゃ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  わかった！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  うむ……おぬしの対価、しかと受け取ったぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  契約書とかは……いらへんの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  わらわたちの約束は互いの信頼の上に成り立っておるゆえ、契約書などは必要ない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  さよか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  では、始めるとしよう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  この後、授業も控えておるゆえ、簡単な方法で占うとするかのう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  （タロットを取り出す）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  うわぁ！　す、すごいなこれ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  どのカードもめっちゃ高値で売れそうやん……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  カードをテーブルに広げて混ぜとるのは、シャッフルなん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  そうじゃ、しばし待つがよい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  授業でやっとったみたいにパラパラって混ぜたらええんちゃうん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  そうする占い師も確かにおる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  わらわは違うがの。一度二度ならば良いじゃろうが、ずっとそのように扱うとカードが痛むからのう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  猛吹雪の中、頑なに進み続ける旅人みたいなものじゃ。いかに体が丈夫で服が暖かくても、体温は少しずつ奪われていくじゃろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  低体温症になったと気付いてからでは取り返しがつかんのじゃよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あはは……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  サーミ人がよく使う喩えじゃが、おぬしなら理解できるじゃろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  うんうん、理解したで。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  もうええかな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  うむ、良いじゃろう……これで、カードがおぬしの迷いを晴らしてくれるはずじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  カードを一つにまとめ、山を半分に分けるのじゃ。そうして分けた位置から三枚引いてテーブルに伏せて置く……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  よいか、まだめくってはならぬぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  それって、ギターノはんは何もせーへんってことやんな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  わらわはおぬしの迷いを晴らす手助けをしてやるだけじゃ。自らの運命は己の手で明らかにされるべきとは思わぬか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  それとも、おぬしは喜んで他人に運命を預けると？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  わかったわかった、ウチが自分でやるわ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  一つにまとめて……二つに分けて……三枚引いて裏っ返しのまんま自分の前に並べて置けばいいんやな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  これでどや？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  思い切りのよい動きじゃな、一切のためらいが見られぬ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  せやろ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  では、結果を見るがよい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  さあ心を落ち着けて、どれでも思う順にカードをめくるのじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  なんやクソ真面目な感じやな……プレッシャー感じてまうわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  恐れることはない、さぁ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  まず一枚目をめくるのじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  （カードをめくる）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  カップのナイト……逆位置じゃな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ウチよぉわからへんねんけど、逆とかってなんか関係あるん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  簡単に言うと、逆位置は今おぬしが障害物に阻まれているということを表しておる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  えっ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  安心せい。阻まれていたからといって、それが必ずしも悪いというわけではない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  今現在は、進むことができないというだけじゃな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  障害物を乗り越えれば、成功はすぐ近くにあるかもしれんのう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  へぇ、そうなんや。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  詳しく見てみるとしよう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  おぬし、商売で何か問題に直面しておらぬか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  うーん……かもしれへんな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  基本的に毎月そうやな。販売戦略を間違えるとまるっきり商売にならへん時もあるし、ホンマ頭痛いわー。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  チャンスは見つけているものの、逃してしまっておるのじゃろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  せやけど、そんなん商売人からしたら日常茶飯事やで。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  だから今回は一か八かの大勝負に出ようとしておるんじゃな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ああ、ウチは自分の直感を信じとる。ガヴィルはんの故郷に行けば絶対大儲けできるはずや！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  なるほどのう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  じゃが、確かロドスの物資の仕入れはずっと人手不足のはずじゃ。おぬしが進んで彼らに協力すれば、金銭面で困るようなことはないし、大方のリスクもロドスが担ってくれるじゃろうに――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  何ゆえ個人経営にこだわるんじゃ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  それは――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  個人でやることに慣れてるからやろな……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ふむ。おぬしの経営戦略は、完全に利益のみを追求しているというわけではなさそうじゃな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  そない言うほど大したことやないよ。世の中を知るついでにお金を稼いで、生活費の足しにしとるだけや。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ええモンを得るにはお金がぎょうさんかかるからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほんでこのカードは、簡単に言うたら、あんまりええことあらへんのやろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  道のりはそう容易くはないじゃろうな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ええ？　ほなもしかして大損を……ギターノはん、助けてーな！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  そう焦るでない、まだ始まったばかりじゃろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ほれ、二枚目をめくるのじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ううっ、怖いわ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  （震えながらカードをめくる）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ワンドのエース、正位置。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ど、どんな意味なんやろか……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  チャンスをつかみ、その中から再び人生のアドバンテージを得ようとしている。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  危険はあるが、自信を持って人生に挑戦しておるということじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  聞いた感じは何か良さそうやな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  以前に自分自身を占った時、わらわも引いたことがある。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  へぇ――あんたはんも自分を占ったりするん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  何かをひらめいた時、占い師も自分の道を覗き見ていいんじゃよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  占い師っちゅうんは、お金もろて他人を占うだけか思うてたわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  結局、金ではすべての問題を解決することはできぬ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  それに他人が干渉できぬ道もあるんじゃ。自分自身と対話をして、模索し、探求し、ようやく糸口を見つけるチャンスが得られる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  複雑やね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  おぬしが自分の力で商売することを選んだと同じじゃよ。あらゆる決定や選択は、すべて長年にわたる経験の結晶――そうじゃろう？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  他人が与えられるのは助言だけじゃ……決定権は常に自分の手の中にある――今みたいにのう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  もし三枚のカードがすべて最悪の結果だったとして、おぬしは自らの決心を覆すのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  うーん、お金は使うてもうたしなぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  つまりおぬしはただ、慰めを求めに来たというわけじゃな。気持ちが楽になるような結果をわらわに告げてほしいと。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ああ、答えなくともよいぞ。多くの者がそうじゃからな、わかっておる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  物事を決めかねている時、誰もが超常的な方法でなにもかも解決できれば、と願いがちじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  じゃが残念なことに、占いはおぬしたちが期待しているようなものではない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  わらわにできることは、前途を少し覗き見て、力の及ぶ限り手助けすることだけじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  おぬしは対価を支払った。ならば、わらわは全力で義務を果たす。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  それだけじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ギターノはん……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  では、続けようぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  わ、わかった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  おぬしは冒険をするじゃろう、そしてその旅は決して穏やかなものではない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  結果については、最後の一枚がもたらす啓示に期待するとしよう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  結局、龍門幣一枚すら残らぬかもしれんがな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  だんだん雲行きが危うくなってきよったな……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  わらわはただ、悪い方の可能性を言うたまでじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  大儲けの可能性とて、無きにしも非ずじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  そうなればええんやけどなぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  そうなれば、わらわはパフューマーの所へ行ってアロマセラピーのフルコースでも受けようかのう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  支払いはおぬし持ちでな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ええで、儲かったらそんなんナンボでも払うたるわ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  フフッ、約束じゃぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  では、おぬしの今回の旅の結末を探るとしよう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  最後の一枚じゃ、めくるがよい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  （サッとカードをめくる）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ツインムーン、正位置。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  正位置か、よかったよかった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  それは……どうじゃろうな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  おぬし……ガヴィルの故郷の状況について調べはついておるのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  サルゴンの市場なら調査したで。絶対よう売れるわ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ……であれば、それに越したことはないがのう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  （普通のサルゴン市場ではない可能性が高そうじゃ……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  （正位置のツインムーン……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  旅は穏やかではない。前のカードも同じ予言をしておった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  欺かれぬよう、気を付けた方がよいな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  わらわの助言は、可能な限り物事は慎重に行えということじゃな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ところで、おぬしは月が好きか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  大好き……とは言わんけど、気持ちが沈んどる時にデッキから月を見上げたら、少しは気が晴れるで。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  では月影は？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ん？　わざわざ影を見ようとする人なんておるんかいな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  月の輝きの下では、見落とされがちなものがある……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  このカードが示しておるのも、そういったことじゃな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  輝きによって覆われ、故意に隠されるものもある。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  それが幸いであるか災いであるかは、慎重に吟味せねばならぬ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  わかった。気ぃ付けるわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  カードが示しておるのは、このくらいじゃな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  三枚のカードの組み合わせがおぬしに示すことは――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  クロワッサン、おぬしの未来は決して楽ではない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  少なくとも今回ドクターと一緒に行く旅は、障害が多いじゃろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  自分で感じぬか？　例えば心の中に微かな不安や戸惑いなどは――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ちょっと……あるかも知れへんな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  せやけど、キバったらなんとかなるやろ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  その……カードにはウチが投資でヘタ打つとか書いてあるん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  いいや。タロットはそんな明確な未来を予言したりはせぬ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほな、まだ救いはあるっちゅうことやね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ホンマにアカンかったら、貯金箱叩きゃなんとか持つやろ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  そうであればよいがのう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  占いは、これでおしまいじゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  まだ何かわらわにしてほしいことはあるかの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  うーん……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ギターノはん、自分も引いてみぃ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  さっき言うてたやん。占い師も自分を占うっちゅーて。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あんたはんの運気がどないなモンなんか、ウチ見てみたいねん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  じゃがそれはわらわが――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほれほれー。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  タロットはそういう――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  もう、ええからさっさと引きぃや。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  （ギターノに無理やり引かせる）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほな、めくりぃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  待つのじゃ、準備をさせてくれ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ふぅ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  （カードをめくる）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  カップの十……逆位置……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  これって悪い意味なん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ならウチが逆にしたるわ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  待て！　触るでない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あっ、うん……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ごめんな、ギターノはん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  いや。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  違う。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  カード位置が正か逆かは、めくった者のいる方向によって決まる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  つまりこのカードは――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  正位置じゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あー……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  そうか！　あんたはんはウチの正面に座っとるもんな！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほなこれは、良い意味ってことやんな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  わらわの仕事と人間関係で言えば……とても良い。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほな――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  （ギターノの腕をつかんで頬擦りする）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  な、なんじゃ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  その強運をウチに分けてーな。そしたら元手の回収くらいはできるかもしれへんやろ？　頼むさかい！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  そ、そこまで言うなら――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  好きにするがよい……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ううっ、ウチは絶対元をとるんやああああ！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  どうしたのじゃ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  今ふと思うたんやけど……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  もしウチがあんたはんの運を借りたら、さっきの占いの結果も無効になるんちゃう？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  さて、どうじゃろうな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  その可能性はあるんやな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  もう一度占うのなら、また別の対価を支払ってもらうぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ……ほな、やめとくわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  頬擦りする分には、金は取らへんやろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  はぁ、おまけしといてやるかの……よい。金は取らぬ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ホンマおおきに！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">五分後
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  クロワッサン先生、来たよ！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="子供オペレーター"]  あっ、ギターノ先生もいる、こんにちは！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  まいど。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ふむ、こんにちは。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  では、わらわはもう行くぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  ロドスを埋め尽くすほどの龍門幣が手に入ることを願っておる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  任しとき！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  今度欲しいモンあったらウチんとこ来たってや。大サービスしたるさかい！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  時運は千変万化、その時が来ればまた詳しく話をしようぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  （手を振って去る）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ギターノ"]  （クロワッサン、わらわの運気がおぬしの助けになることを願っておるぞ。）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhodes Island Cafeteria
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  And so, just like that—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  And your cards naturally fall like water from one hand—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Into the other.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  Wow!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Do you know how?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  I still don't!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  Do it again, Gitano!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  *clears throat* Now, watch carefully.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  Okay—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Do you understand now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  Nooope—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Really?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Regrettably, however, that's the end of today's cardistry lesson.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  Awww—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  How about one more time?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Then the person teaching here in a short while will be quite angry with me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  You wouldn't want to see me get castigated, would you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  Just one more, one little bit more? It'll be okay, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Rules are very important. You cannot let your desires lead you to willingly abandon them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Hmm—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Such as it is, I'll give you all some homework.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  If anyone can show us the fruits of their practice by next week's lesson...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Then—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  You may draw one reward from the teacher's Treasure Chest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  The Treasure Chest?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  Really?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Really and truly. Just two days ago, your teacher even added something quite fun to it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  As long as you can summon the courage to give us all a display, everyone will get a share.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  Yay!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Alright, class dismissed. Don't forget, keep your cards and toys safe with you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  We'll meet next week.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  Bye, Miss!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Phew...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Phewie and a half. Breathe easy, miss. Lessons still runnin' slick?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  You might get the impression they're lessons, but it's really just entertaining the children.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  You have the greater burden.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  It takes quite a lot of brainpower and effort, teaching children the rules of arithmetic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Ain't no nightmare, really. Play numbers long 'nuff 'n they get it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  'n what I teach ain't no mathematics. Umm, what was that name I picked it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  'Business Fanatics Class?' Somethin' like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Aw, shucks, I'm just the same as you. Three cheers fer fun 'n none fer learnin'.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  And that's quite good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  After all, it's a very cruel thing, doing business.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  You get me, ma'am.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Though it was never originally intended as such, divination is also fundamentally a sort of business.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  So it goes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  I'll let you set up the classroom in peace, then. Farewell.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Hrmmm—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Hm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Oh, right!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Gitano, one second, please!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Do you need anything?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  It's like this, see. Doctor seems fixin' ta head out far with Gavial, makin' fer a corner of Sargon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Mm-hm.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  And me, I'm gettin' ready to visit with, see if I can't do a li'l dealin' while I'm there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Yes, I follow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  So I thought, uh. Y'see, uh. If you could juuuuust do me a li'l favor, gimme a tellin'?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  You ought to know—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  I know there is, yep, just, urm, how do I break this—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Spent all my money on gettin' stock in, ha, and now I ain't got a red cent on me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  *Sigh*.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  I won't take any money as compensation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Ya serious? That's mighty fine!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  But I will need you to promise something.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  You must promise me this—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  You will not sell anything to the children during class.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  ?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Not even if it's 'just snacks.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Uh, haha.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Aw, heck, what makes you think I'd do somethin' like that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Class might be a circus, but I still teach 'em proper.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  You might, you might not. Neither has any bearing on me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  I simply need your promise, and that will be my price.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  'n if I go back on it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Who knows?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Hm...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  What do you think?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Sold!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  I have accepted your payment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  No need fer a... contract or somesuch?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Hmm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Our agreement is built upon our trust in each other. We need no contract.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Huh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  In that case, let us begin.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Considering class is about to start, we'll employ a more simple divination method.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  (Pulls out tarot deck)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Whoa, that's... some crafts, ain't it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Feels like every card in there'd fetch big money.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Way you spread out 'n spin' 'em on the table, is that shufflin'?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Yes. Please wait a moment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Could just shuffle 'em fancy in one shot, like you were teachin'.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Some diviners will do it like that, true.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  But it's too harmful to the cards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Just like the voyager pushing stubbornly through a blizzard: no matter how healthy, or how warm the clothes, their warmth is pulled away trace by trace in the end.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  The moment warmth is lost, all remedy will be of avail no more.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Ahaha...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Just a comparison Sami tend to use fairly often. I imagine you comprehend it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Yup, yup, I getcha.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  All ready now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Mm. They're ready. They should be able to shine a light for you on some of your conundrums.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Gather them together, cut them once, and starting from where you've cut them, lay down three cards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Remember, do not turn them over yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  So ya don't actually do a darn thing, Gitano?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  I'm merely your guide in understanding. Shouldn't you uncover your own fate?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Or, perhaps, you're easily willing to lay your fate in others' hands?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Alrght, I get it now. Lemme at 'em!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Stack 'em up... cut... lay three cards face down in front.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  That oughta be good, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Your movements are very direct. It seems you are not adrift.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Darn tootin'.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Well, then. Please.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Turn a card however you wish.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Ya been so dead serious all this time. Got some pressure on me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  There's nothing to be scared of. Come.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Reveal your first card.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  (Flips card)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  The Knight of Cups, Reversed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Ya gotta fill me in. Does forward or backward matter anythin'?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  To put it simply, reversed cards symbolize that you are currently hindered by something.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Huh?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Relax. These hindrances are not necessarily bad in meaning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  They simply mean that right now, you are unable to successfully proceed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Breakthrough, and success, perhaps aren't too far away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Gotcha.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Let me look carefully.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Have you run into any problems doing business?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Uh, suppose I have.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  That's how it goes more or less every month. Sometimes I blunder decidin', 'n then I don't earn nothin'. Pain in my keister.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  You've probably seen an opportunity, but failed to grasp it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  That's the story of anyone doin' business any day of the week.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  So this time, you've prepared to stake it all?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  I trust my intuition. Headin' to Gavial's ol' place is gonna pay off big!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  I see.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  By my understanding, Rhodes Island's procurement services have always been short of hands. As long as you're willing to help them with some work, money won't be a problem, and most risk will be shouldered by Rhodes Island instead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Why choose to go it alone?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  That, huh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Used to workin' by myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  It seems your decisions are not wholly profit-seeking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Ain't as grand as ya put it, neither. Just seein' the world fer myself, makin' some money on the side to patch up expenses.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Always gotta spend money fer the good stuff, after all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  I understand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  So this, uh, this here card, basically, it ain't no good sign.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Coming events will not be smooth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  So can I just—Gitano—ya gotta teach me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Don't rush. This is merely a beginning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Come. Reveal your second card.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  D'awwwgh, alright...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  (Shakes as she flips a card)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  The Ace of Wands, Upright.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Wh... what's this one mean...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  You have seized an opportunity, and are about to receive an advantage in life from it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Though there may be great danger, you have issued your challenge to life with full conviction.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Sounds like a good thing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  When I divined for myself, I once came to this one too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Whoa—y'all can even do divination fer yerselves?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  When a flash of miraculous light strikes, diviners are utterly capable of peering into their own paths.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  'n here I thought diviners only took money 'n did stuff fer other folk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Ultimately, currency cannot settle all questions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Moreover, there are some paths outsiders have no recourse to interfere in. Only by conversing with themselves, feeling through things, pursuing, can they grasp a chance at a clue.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Gets pretty darn complicated, then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  It's just like how you choose to conduct business by yourself, Croissant. All your decisions, any of your choices, they're all crystallizations of your years of business experience, aren't they?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Others can only give suggestions. The power to decide lies eternally in your own hand—just as it does now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Even if all three cards portended the worst outcome, would you really change your decisions?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Money's spent...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  So you've only come seeking a comfort of sorts, hoping I might give you reassuring results.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Ah—no need to answer me. Many are like that. I understand it very well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  All of us will tend to hope for something unrealistic in uncertain times, something that'll resolve it all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Unfortunately, I'm not what you've all been hoping for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  All I can do is peer shallow into the road ahead, and offer all the help I can.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  You've paid my terms, and so I have a responsibility to spare no effort for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Only this, and nothing more.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Gitano...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Let us continue.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Al... Alrighty.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  You will have an adventure, but it seems your journey won't be serene.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  As for the outcome, we may look to the last card to show our answer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  I can't say whether there'll even be a single note of LMD at the end.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  It just keeps gettin' more dangerous...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  I only bring up a poorer kind of possibility.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Returning with overflowing riches is not out of possibility's realm, either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Gosh, could ya imagine?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  I'll be visiting Perfumer's sometime for a complete course of aromatic sleep therapy, then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  I'll leave the bill to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  I make some cash 'n I'll cover ya!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Hm-hmm. It's a done deal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Now, then, let us explore your destination in this journey.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Your final card, please.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  (Flips tarot card with a swish)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  The Moons, Upright.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  So it's upright. 'kay, good start.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  This is... certainly hard to say.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Have... you ever looked into Gavial's hometown situation before?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  I've surveyed Sargon markets before. This stuff'll sell like hotcakes!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  If so, that'll be the best outcome.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  (Is there any possibility it won't be an ordinary Sargon market, I wonder...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  (The Moons upright...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Your journey will not be serene. The fore cards tell of that much.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Be wary of deception, and wary of being cheated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  In my view, if possible, do proceed cautiously.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Do you like the moons?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Like? Can't say I do fer sure? But when I'm moody out on the deck 'n look up 'n see the moons, that makes me feel alright some.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  And the moonshadow?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Umm. Do folk specifically go lookin' fer the shadow?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Under the radiance of the moon, things often come to be ignored.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  The things this card shows are also as such.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  There is always that which is hidden by radiance, painstakingly concealed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Whether it is fortune or sorrow requires your own careful consideration.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Noted. I'll be watchin' out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  And this should be what these cards have shown.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  What these three cards together make known to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Croissant, your future will not be relaxed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  At the least, accompanying the Doctor on this journey out, there will be many hindrances.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Do you have any such feeling of your own? For example, a vague unease or confusion in your heart.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Kinda a li'l bit...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  But push past, 'n I should be able to get over it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Do the, uh, cards say I'm gonna lose my investment?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Not at all. Besides, the tarot never speaks in certainties of futures.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  So, still a chance I'm saved.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  If I can't hold out, I oughta last 'nother couple days knockin' on my savin's jar.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Here's hoping.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  As for divining, things would wrap up here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Is there anything else you need me for?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Hmm...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Gitano, you pull a card too!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Oh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Didn'tcha just say diviners can divine themselves too?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  I wanna see how yer luck is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  But that requires me to prepare—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  C'mon, lessee.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  The tarot is not—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Aw, potayto potahto, c'mon. Draw.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  (Draws a card 'for' Gitano.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  !
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Come on. Flip it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Wait. Let me prepare a moment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Phew.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  (Flips tarot card)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Ten of Cups... Reversed...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  This mean somethin' bad?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Then lemme just turn it round—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Stay your hand and do not touch the card!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Oh, alright...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Sorry, Gitano.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  ?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  That's not it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  The card's position is in relation to the revealer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  So this card.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Is Upright.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Hmm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Ohh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Right! Yer sittin' opposite me!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  So this card mean somethin' good, then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  In regards to my occupation and personal relations, it's not bad at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Then—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  (Grabs Gitano's hand and rubs it a few times)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Eh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Lemme borrow a li'l bit of yer good luck, a'ight? This way I can pay ya back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  If you so insist...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  As you wish, then...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Hoooo boy, yer gonna let me pay you back sure as sweeeeeet heck.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Ah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  What's wrong?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  I just thoughta somethin'!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  If I'm borrowin' yer good luck, don't that mean the whole divination we just did don't count fer nothin' now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  So there ain't no rule like that, huh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  If you want another divination, you will have to make a payment to me again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Uh, yup. Pass, then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Lemme rub a few more times. That oughta be free, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Hm-hmm~
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  I'll give you a discount on this one. Free it is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Aw, thanks!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Five minutes later...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  Hi, Croissant!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Studying Operator"]  It's nice to meet you too, Gitano!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Oooh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Good day, all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Well, then. I'll be leaving now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  I pray the LMD you earn will be enough to cram Rhodes Island full.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  You got it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Next time ya got stuff to buy, remember, you find me. I'll give ya some deep discounts!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  Fate is a thing of constant change. We'll talk details when the time is right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  (Waves and leaves)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gitano"]  (I hope my fortune can truly be of help to you, Croissant.)
 </t>
   </si>
   <si>
@@ -2708,13 +5012,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>579</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2722,13 +5026,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>580</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2736,13 +5040,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>581</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2750,13 +5054,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>582</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2764,13 +5068,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>583</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2778,13 +5082,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>584</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2792,13 +5096,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>585</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2806,13 +5110,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>586</v>
       </c>
       <c r="D9" t="s">
-        <v>299</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2820,13 +5124,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>587</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2834,13 +5138,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>588</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2848,13 +5152,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>589</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2862,13 +5166,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>584</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2876,13 +5180,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>590</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>879</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2890,13 +5194,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>591</v>
       </c>
       <c r="D15" t="s">
-        <v>304</v>
+        <v>880</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2904,13 +5208,13 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>592</v>
       </c>
       <c r="D16" t="s">
-        <v>305</v>
+        <v>881</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2918,13 +5222,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>593</v>
       </c>
       <c r="D17" t="s">
-        <v>306</v>
+        <v>882</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2932,13 +5236,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>594</v>
       </c>
       <c r="D18" t="s">
-        <v>307</v>
+        <v>883</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2946,13 +5250,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>595</v>
       </c>
       <c r="D19" t="s">
-        <v>308</v>
+        <v>884</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2960,13 +5264,13 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>596</v>
       </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>885</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2974,13 +5278,13 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>597</v>
       </c>
       <c r="D21" t="s">
-        <v>310</v>
+        <v>886</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2988,13 +5292,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>311</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>598</v>
       </c>
       <c r="D22" t="s">
-        <v>311</v>
+        <v>887</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3002,13 +5306,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>599</v>
       </c>
       <c r="D23" t="s">
-        <v>312</v>
+        <v>888</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3016,13 +5320,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>600</v>
       </c>
       <c r="D24" t="s">
-        <v>313</v>
+        <v>889</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3030,13 +5334,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>601</v>
       </c>
       <c r="D25" t="s">
-        <v>314</v>
+        <v>890</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3044,13 +5348,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>315</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>602</v>
       </c>
       <c r="D26" t="s">
-        <v>315</v>
+        <v>891</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3058,13 +5362,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>316</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>603</v>
       </c>
       <c r="D27" t="s">
-        <v>316</v>
+        <v>892</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3072,13 +5376,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>604</v>
       </c>
       <c r="D28" t="s">
-        <v>317</v>
+        <v>893</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3086,13 +5390,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>318</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>605</v>
       </c>
       <c r="D29" t="s">
-        <v>318</v>
+        <v>894</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3100,13 +5404,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>319</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>606</v>
       </c>
       <c r="D30" t="s">
-        <v>319</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3114,13 +5418,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>320</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>607</v>
       </c>
       <c r="D31" t="s">
-        <v>320</v>
+        <v>896</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3128,13 +5432,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>321</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>608</v>
       </c>
       <c r="D32" t="s">
-        <v>321</v>
+        <v>897</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3142,13 +5446,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>322</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>609</v>
       </c>
       <c r="D33" t="s">
-        <v>322</v>
+        <v>898</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3156,13 +5460,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>323</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>610</v>
       </c>
       <c r="D34" t="s">
-        <v>323</v>
+        <v>899</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3170,13 +5474,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>611</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3184,13 +5488,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>325</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>612</v>
       </c>
       <c r="D36" t="s">
-        <v>325</v>
+        <v>901</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3198,13 +5502,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>326</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>613</v>
       </c>
       <c r="D37" t="s">
-        <v>326</v>
+        <v>902</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3212,13 +5516,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>327</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>614</v>
       </c>
       <c r="D38" t="s">
-        <v>327</v>
+        <v>903</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3226,13 +5530,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>615</v>
       </c>
       <c r="D39" t="s">
-        <v>328</v>
+        <v>904</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3240,13 +5544,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>616</v>
       </c>
       <c r="D40" t="s">
-        <v>329</v>
+        <v>905</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3254,13 +5558,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>617</v>
       </c>
       <c r="D41" t="s">
-        <v>330</v>
+        <v>906</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3268,13 +5572,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>618</v>
       </c>
       <c r="D42" t="s">
-        <v>331</v>
+        <v>907</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3282,13 +5586,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>619</v>
       </c>
       <c r="D43" t="s">
-        <v>332</v>
+        <v>908</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3296,13 +5600,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>620</v>
       </c>
       <c r="D44" t="s">
-        <v>333</v>
+        <v>909</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3310,13 +5614,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>334</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>621</v>
       </c>
       <c r="D45" t="s">
-        <v>334</v>
+        <v>910</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3324,13 +5628,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>335</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>622</v>
       </c>
       <c r="D46" t="s">
-        <v>335</v>
+        <v>911</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3338,13 +5642,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>336</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>623</v>
       </c>
       <c r="D47" t="s">
-        <v>336</v>
+        <v>912</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3352,13 +5656,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>624</v>
       </c>
       <c r="D48" t="s">
-        <v>337</v>
+        <v>913</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3366,13 +5670,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>338</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>625</v>
       </c>
       <c r="D49" t="s">
-        <v>338</v>
+        <v>914</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3380,13 +5684,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>626</v>
       </c>
       <c r="D50" t="s">
-        <v>339</v>
+        <v>915</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3394,13 +5698,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>340</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>627</v>
       </c>
       <c r="D51" t="s">
-        <v>340</v>
+        <v>916</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3408,13 +5712,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>628</v>
       </c>
       <c r="D52" t="s">
-        <v>341</v>
+        <v>917</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3422,13 +5726,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>342</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>629</v>
       </c>
       <c r="D53" t="s">
-        <v>342</v>
+        <v>918</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3436,13 +5740,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>630</v>
       </c>
       <c r="D54" t="s">
-        <v>343</v>
+        <v>919</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3450,13 +5754,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>344</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>631</v>
       </c>
       <c r="D55" t="s">
-        <v>344</v>
+        <v>920</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3464,13 +5768,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>345</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>632</v>
       </c>
       <c r="D56" t="s">
-        <v>345</v>
+        <v>921</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3478,13 +5782,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>346</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>633</v>
       </c>
       <c r="D57" t="s">
-        <v>346</v>
+        <v>922</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3492,13 +5796,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>347</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>634</v>
       </c>
       <c r="D58" t="s">
-        <v>347</v>
+        <v>923</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3506,13 +5810,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>635</v>
       </c>
       <c r="D59" t="s">
-        <v>348</v>
+        <v>924</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3520,13 +5824,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>349</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>636</v>
       </c>
       <c r="D60" t="s">
-        <v>349</v>
+        <v>925</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3534,13 +5838,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>350</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>637</v>
       </c>
       <c r="D61" t="s">
-        <v>350</v>
+        <v>926</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3548,13 +5852,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>351</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>638</v>
       </c>
       <c r="D62" t="s">
-        <v>351</v>
+        <v>927</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3562,13 +5866,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>352</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>639</v>
       </c>
       <c r="D63" t="s">
-        <v>352</v>
+        <v>928</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3576,13 +5880,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>353</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>640</v>
       </c>
       <c r="D64" t="s">
-        <v>353</v>
+        <v>929</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3590,13 +5894,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>354</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>641</v>
       </c>
       <c r="D65" t="s">
-        <v>354</v>
+        <v>930</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3604,13 +5908,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>355</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>642</v>
       </c>
       <c r="D66" t="s">
-        <v>355</v>
+        <v>931</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3618,13 +5922,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>356</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>643</v>
       </c>
       <c r="D67" t="s">
-        <v>356</v>
+        <v>932</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3632,13 +5936,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>357</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>644</v>
       </c>
       <c r="D68" t="s">
-        <v>357</v>
+        <v>933</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3646,13 +5950,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>358</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>645</v>
       </c>
       <c r="D69" t="s">
-        <v>358</v>
+        <v>934</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3660,13 +5964,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>359</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>646</v>
       </c>
       <c r="D70" t="s">
-        <v>359</v>
+        <v>935</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3674,13 +5978,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>647</v>
       </c>
       <c r="D71" t="s">
-        <v>360</v>
+        <v>936</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3688,13 +5992,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>361</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>648</v>
       </c>
       <c r="D72" t="s">
-        <v>361</v>
+        <v>937</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3702,13 +6006,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>362</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>649</v>
       </c>
       <c r="D73" t="s">
-        <v>362</v>
+        <v>938</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3716,13 +6020,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>363</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>650</v>
       </c>
       <c r="D74" t="s">
-        <v>363</v>
+        <v>939</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3730,13 +6034,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>651</v>
       </c>
       <c r="D75" t="s">
-        <v>364</v>
+        <v>940</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3744,13 +6048,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>652</v>
       </c>
       <c r="D76" t="s">
-        <v>365</v>
+        <v>941</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3758,13 +6062,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>653</v>
       </c>
       <c r="D77" t="s">
-        <v>366</v>
+        <v>942</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3772,13 +6076,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
+        <v>654</v>
       </c>
       <c r="D78" t="s">
-        <v>367</v>
+        <v>943</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3786,13 +6090,13 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>655</v>
       </c>
       <c r="D79" t="s">
-        <v>368</v>
+        <v>944</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3800,13 +6104,13 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>656</v>
       </c>
       <c r="D80" t="s">
-        <v>369</v>
+        <v>945</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3814,13 +6118,13 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>657</v>
       </c>
       <c r="D81" t="s">
-        <v>370</v>
+        <v>946</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3828,13 +6132,13 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>658</v>
       </c>
       <c r="D82" t="s">
-        <v>371</v>
+        <v>947</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3842,13 +6146,13 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>659</v>
       </c>
       <c r="D83" t="s">
-        <v>372</v>
+        <v>948</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3856,13 +6160,13 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>373</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>660</v>
       </c>
       <c r="D84" t="s">
-        <v>373</v>
+        <v>949</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3870,13 +6174,13 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>374</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>661</v>
       </c>
       <c r="D85" t="s">
-        <v>374</v>
+        <v>950</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3884,13 +6188,13 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>375</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>662</v>
       </c>
       <c r="D86" t="s">
-        <v>375</v>
+        <v>951</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3898,13 +6202,13 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>376</v>
       </c>
       <c r="C87" t="s">
-        <v>88</v>
+        <v>663</v>
       </c>
       <c r="D87" t="s">
-        <v>376</v>
+        <v>952</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3912,13 +6216,13 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>377</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>664</v>
       </c>
       <c r="D88" t="s">
-        <v>377</v>
+        <v>953</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3926,13 +6230,13 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>378</v>
       </c>
       <c r="C89" t="s">
-        <v>90</v>
+        <v>665</v>
       </c>
       <c r="D89" t="s">
-        <v>378</v>
+        <v>954</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3940,13 +6244,13 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>379</v>
       </c>
       <c r="C90" t="s">
-        <v>91</v>
+        <v>666</v>
       </c>
       <c r="D90" t="s">
-        <v>379</v>
+        <v>955</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3954,13 +6258,13 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>380</v>
       </c>
       <c r="C91" t="s">
-        <v>92</v>
+        <v>667</v>
       </c>
       <c r="D91" t="s">
-        <v>380</v>
+        <v>956</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3968,13 +6272,13 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="C92" t="s">
-        <v>93</v>
+        <v>668</v>
       </c>
       <c r="D92" t="s">
-        <v>381</v>
+        <v>957</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3982,13 +6286,13 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>382</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>669</v>
       </c>
       <c r="D93" t="s">
-        <v>382</v>
+        <v>958</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3996,13 +6300,13 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>383</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>670</v>
       </c>
       <c r="D94" t="s">
-        <v>383</v>
+        <v>959</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4010,13 +6314,13 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="C95" t="s">
-        <v>96</v>
+        <v>671</v>
       </c>
       <c r="D95" t="s">
-        <v>384</v>
+        <v>960</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4024,13 +6328,13 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>385</v>
       </c>
       <c r="C96" t="s">
-        <v>97</v>
+        <v>672</v>
       </c>
       <c r="D96" t="s">
-        <v>385</v>
+        <v>961</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4038,13 +6342,13 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="C97" t="s">
-        <v>98</v>
+        <v>673</v>
       </c>
       <c r="D97" t="s">
-        <v>386</v>
+        <v>962</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4052,13 +6356,13 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="C98" t="s">
-        <v>99</v>
+        <v>674</v>
       </c>
       <c r="D98" t="s">
-        <v>387</v>
+        <v>963</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4066,13 +6370,13 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>388</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>675</v>
       </c>
       <c r="D99" t="s">
-        <v>388</v>
+        <v>964</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4080,13 +6384,13 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>389</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>676</v>
       </c>
       <c r="D100" t="s">
-        <v>389</v>
+        <v>965</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4094,13 +6398,13 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>390</v>
       </c>
       <c r="C101" t="s">
-        <v>102</v>
+        <v>677</v>
       </c>
       <c r="D101" t="s">
-        <v>390</v>
+        <v>966</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4108,13 +6412,13 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>391</v>
       </c>
       <c r="C102" t="s">
-        <v>103</v>
+        <v>678</v>
       </c>
       <c r="D102" t="s">
-        <v>391</v>
+        <v>967</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4122,13 +6426,13 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>392</v>
       </c>
       <c r="C103" t="s">
-        <v>104</v>
+        <v>679</v>
       </c>
       <c r="D103" t="s">
-        <v>392</v>
+        <v>968</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4136,13 +6440,13 @@
         <v>94</v>
       </c>
       <c r="B104" t="s">
-        <v>94</v>
+        <v>382</v>
       </c>
       <c r="C104" t="s">
-        <v>94</v>
+        <v>669</v>
       </c>
       <c r="D104" t="s">
-        <v>382</v>
+        <v>958</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4150,13 +6454,13 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>393</v>
       </c>
       <c r="C105" t="s">
-        <v>105</v>
+        <v>680</v>
       </c>
       <c r="D105" t="s">
-        <v>393</v>
+        <v>969</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4164,13 +6468,13 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>394</v>
       </c>
       <c r="C106" t="s">
-        <v>106</v>
+        <v>681</v>
       </c>
       <c r="D106" t="s">
-        <v>394</v>
+        <v>970</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4178,13 +6482,13 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>395</v>
       </c>
       <c r="C107" t="s">
-        <v>107</v>
+        <v>682</v>
       </c>
       <c r="D107" t="s">
-        <v>395</v>
+        <v>971</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4192,13 +6496,13 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>396</v>
       </c>
       <c r="C108" t="s">
-        <v>108</v>
+        <v>683</v>
       </c>
       <c r="D108" t="s">
-        <v>396</v>
+        <v>972</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4206,13 +6510,13 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>397</v>
       </c>
       <c r="C109" t="s">
-        <v>109</v>
+        <v>684</v>
       </c>
       <c r="D109" t="s">
-        <v>397</v>
+        <v>973</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4220,13 +6524,13 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>398</v>
       </c>
       <c r="C110" t="s">
-        <v>110</v>
+        <v>685</v>
       </c>
       <c r="D110" t="s">
-        <v>398</v>
+        <v>974</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4234,13 +6538,13 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>399</v>
       </c>
       <c r="C111" t="s">
-        <v>111</v>
+        <v>686</v>
       </c>
       <c r="D111" t="s">
-        <v>399</v>
+        <v>975</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4248,13 +6552,13 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>400</v>
       </c>
       <c r="C112" t="s">
-        <v>112</v>
+        <v>687</v>
       </c>
       <c r="D112" t="s">
-        <v>400</v>
+        <v>976</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4262,13 +6566,13 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>401</v>
       </c>
       <c r="C113" t="s">
-        <v>113</v>
+        <v>688</v>
       </c>
       <c r="D113" t="s">
-        <v>401</v>
+        <v>977</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4276,13 +6580,13 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>402</v>
       </c>
       <c r="C114" t="s">
-        <v>114</v>
+        <v>689</v>
       </c>
       <c r="D114" t="s">
-        <v>402</v>
+        <v>978</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4290,13 +6594,13 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>403</v>
       </c>
       <c r="C115" t="s">
-        <v>115</v>
+        <v>690</v>
       </c>
       <c r="D115" t="s">
-        <v>403</v>
+        <v>979</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4304,13 +6608,13 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>404</v>
       </c>
       <c r="C116" t="s">
-        <v>116</v>
+        <v>691</v>
       </c>
       <c r="D116" t="s">
-        <v>404</v>
+        <v>980</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4318,13 +6622,13 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>405</v>
       </c>
       <c r="C117" t="s">
-        <v>117</v>
+        <v>692</v>
       </c>
       <c r="D117" t="s">
-        <v>405</v>
+        <v>981</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4332,13 +6636,13 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>406</v>
       </c>
       <c r="C118" t="s">
-        <v>118</v>
+        <v>693</v>
       </c>
       <c r="D118" t="s">
-        <v>406</v>
+        <v>982</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4346,13 +6650,13 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>407</v>
       </c>
       <c r="C119" t="s">
-        <v>119</v>
+        <v>694</v>
       </c>
       <c r="D119" t="s">
-        <v>407</v>
+        <v>983</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4360,13 +6664,13 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>408</v>
       </c>
       <c r="C120" t="s">
-        <v>120</v>
+        <v>695</v>
       </c>
       <c r="D120" t="s">
-        <v>408</v>
+        <v>984</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4374,13 +6678,13 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>409</v>
       </c>
       <c r="C121" t="s">
-        <v>121</v>
+        <v>696</v>
       </c>
       <c r="D121" t="s">
-        <v>409</v>
+        <v>985</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4388,13 +6692,13 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>410</v>
       </c>
       <c r="C122" t="s">
-        <v>122</v>
+        <v>697</v>
       </c>
       <c r="D122" t="s">
-        <v>410</v>
+        <v>986</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4402,13 +6706,13 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>411</v>
       </c>
       <c r="C123" t="s">
-        <v>123</v>
+        <v>698</v>
       </c>
       <c r="D123" t="s">
-        <v>411</v>
+        <v>987</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4416,13 +6720,13 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>412</v>
       </c>
       <c r="C124" t="s">
-        <v>124</v>
+        <v>699</v>
       </c>
       <c r="D124" t="s">
-        <v>412</v>
+        <v>988</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4430,13 +6734,13 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>413</v>
       </c>
       <c r="C125" t="s">
-        <v>125</v>
+        <v>700</v>
       </c>
       <c r="D125" t="s">
-        <v>413</v>
+        <v>989</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4444,13 +6748,13 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>414</v>
       </c>
       <c r="C126" t="s">
-        <v>126</v>
+        <v>701</v>
       </c>
       <c r="D126" t="s">
-        <v>414</v>
+        <v>990</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4458,13 +6762,13 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>415</v>
       </c>
       <c r="C127" t="s">
-        <v>127</v>
+        <v>702</v>
       </c>
       <c r="D127" t="s">
-        <v>415</v>
+        <v>991</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4472,13 +6776,13 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>416</v>
       </c>
       <c r="C128" t="s">
-        <v>128</v>
+        <v>703</v>
       </c>
       <c r="D128" t="s">
-        <v>416</v>
+        <v>992</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4486,13 +6790,13 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>417</v>
       </c>
       <c r="C129" t="s">
-        <v>129</v>
+        <v>704</v>
       </c>
       <c r="D129" t="s">
-        <v>417</v>
+        <v>993</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4500,13 +6804,13 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>418</v>
       </c>
       <c r="C130" t="s">
-        <v>130</v>
+        <v>705</v>
       </c>
       <c r="D130" t="s">
-        <v>418</v>
+        <v>994</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4514,13 +6818,13 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>419</v>
       </c>
       <c r="C131" t="s">
-        <v>131</v>
+        <v>706</v>
       </c>
       <c r="D131" t="s">
-        <v>419</v>
+        <v>995</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4528,13 +6832,13 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>420</v>
       </c>
       <c r="C132" t="s">
-        <v>132</v>
+        <v>707</v>
       </c>
       <c r="D132" t="s">
-        <v>420</v>
+        <v>996</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4542,13 +6846,13 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>421</v>
       </c>
       <c r="C133" t="s">
-        <v>133</v>
+        <v>708</v>
       </c>
       <c r="D133" t="s">
-        <v>421</v>
+        <v>997</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4556,13 +6860,13 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>422</v>
       </c>
       <c r="C134" t="s">
-        <v>134</v>
+        <v>709</v>
       </c>
       <c r="D134" t="s">
-        <v>422</v>
+        <v>998</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4570,13 +6874,13 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>423</v>
       </c>
       <c r="C135" t="s">
-        <v>135</v>
+        <v>710</v>
       </c>
       <c r="D135" t="s">
-        <v>423</v>
+        <v>999</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4584,13 +6888,13 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>424</v>
       </c>
       <c r="C136" t="s">
-        <v>136</v>
+        <v>711</v>
       </c>
       <c r="D136" t="s">
-        <v>424</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4598,13 +6902,13 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>425</v>
       </c>
       <c r="C137" t="s">
-        <v>137</v>
+        <v>712</v>
       </c>
       <c r="D137" t="s">
-        <v>425</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4612,13 +6916,13 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>426</v>
       </c>
       <c r="C138" t="s">
-        <v>138</v>
+        <v>713</v>
       </c>
       <c r="D138" t="s">
-        <v>426</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4626,13 +6930,13 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>427</v>
       </c>
       <c r="C139" t="s">
-        <v>139</v>
+        <v>714</v>
       </c>
       <c r="D139" t="s">
-        <v>427</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4640,13 +6944,13 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>428</v>
       </c>
       <c r="C140" t="s">
-        <v>140</v>
+        <v>715</v>
       </c>
       <c r="D140" t="s">
-        <v>428</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4654,13 +6958,13 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>429</v>
       </c>
       <c r="C141" t="s">
-        <v>141</v>
+        <v>716</v>
       </c>
       <c r="D141" t="s">
-        <v>429</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4668,13 +6972,13 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>430</v>
       </c>
       <c r="C142" t="s">
-        <v>142</v>
+        <v>717</v>
       </c>
       <c r="D142" t="s">
-        <v>430</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4682,13 +6986,13 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>431</v>
       </c>
       <c r="C143" t="s">
-        <v>143</v>
+        <v>718</v>
       </c>
       <c r="D143" t="s">
-        <v>431</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4696,13 +7000,13 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>432</v>
       </c>
       <c r="C144" t="s">
-        <v>144</v>
+        <v>719</v>
       </c>
       <c r="D144" t="s">
-        <v>432</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4710,13 +7014,13 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>433</v>
       </c>
       <c r="C145" t="s">
-        <v>145</v>
+        <v>720</v>
       </c>
       <c r="D145" t="s">
-        <v>433</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4724,13 +7028,13 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>434</v>
       </c>
       <c r="C146" t="s">
-        <v>146</v>
+        <v>721</v>
       </c>
       <c r="D146" t="s">
-        <v>434</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4738,13 +7042,13 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>427</v>
       </c>
       <c r="C147" t="s">
-        <v>147</v>
+        <v>722</v>
       </c>
       <c r="D147" t="s">
-        <v>435</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4752,13 +7056,13 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>435</v>
       </c>
       <c r="C148" t="s">
-        <v>148</v>
+        <v>723</v>
       </c>
       <c r="D148" t="s">
-        <v>436</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4766,13 +7070,13 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>436</v>
       </c>
       <c r="C149" t="s">
-        <v>149</v>
+        <v>724</v>
       </c>
       <c r="D149" t="s">
-        <v>437</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4780,13 +7084,13 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>437</v>
       </c>
       <c r="C150" t="s">
-        <v>150</v>
+        <v>725</v>
       </c>
       <c r="D150" t="s">
-        <v>438</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4794,13 +7098,13 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>438</v>
       </c>
       <c r="C151" t="s">
-        <v>151</v>
+        <v>726</v>
       </c>
       <c r="D151" t="s">
-        <v>439</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4808,13 +7112,13 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>439</v>
       </c>
       <c r="C152" t="s">
-        <v>152</v>
+        <v>727</v>
       </c>
       <c r="D152" t="s">
-        <v>440</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4822,13 +7126,13 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>440</v>
       </c>
       <c r="C153" t="s">
-        <v>153</v>
+        <v>728</v>
       </c>
       <c r="D153" t="s">
-        <v>441</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4836,13 +7140,13 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>441</v>
       </c>
       <c r="C154" t="s">
-        <v>154</v>
+        <v>729</v>
       </c>
       <c r="D154" t="s">
-        <v>442</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4850,13 +7154,13 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>442</v>
       </c>
       <c r="C155" t="s">
-        <v>155</v>
+        <v>730</v>
       </c>
       <c r="D155" t="s">
-        <v>443</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4864,13 +7168,13 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>443</v>
       </c>
       <c r="C156" t="s">
-        <v>156</v>
+        <v>731</v>
       </c>
       <c r="D156" t="s">
-        <v>444</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4878,13 +7182,13 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>444</v>
       </c>
       <c r="C157" t="s">
-        <v>157</v>
+        <v>732</v>
       </c>
       <c r="D157" t="s">
-        <v>445</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4892,13 +7196,13 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>445</v>
       </c>
       <c r="C158" t="s">
-        <v>158</v>
+        <v>733</v>
       </c>
       <c r="D158" t="s">
-        <v>446</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4906,13 +7210,13 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>446</v>
       </c>
       <c r="C159" t="s">
-        <v>159</v>
+        <v>734</v>
       </c>
       <c r="D159" t="s">
-        <v>447</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4920,13 +7224,13 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>447</v>
       </c>
       <c r="C160" t="s">
-        <v>160</v>
+        <v>735</v>
       </c>
       <c r="D160" t="s">
-        <v>448</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4934,13 +7238,13 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>448</v>
       </c>
       <c r="C161" t="s">
-        <v>161</v>
+        <v>736</v>
       </c>
       <c r="D161" t="s">
-        <v>449</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4948,13 +7252,13 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>449</v>
       </c>
       <c r="C162" t="s">
-        <v>162</v>
+        <v>737</v>
       </c>
       <c r="D162" t="s">
-        <v>450</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4962,13 +7266,13 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
       <c r="C163" t="s">
-        <v>163</v>
+        <v>738</v>
       </c>
       <c r="D163" t="s">
-        <v>451</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4976,13 +7280,13 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>451</v>
       </c>
       <c r="C164" t="s">
-        <v>164</v>
+        <v>739</v>
       </c>
       <c r="D164" t="s">
-        <v>452</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4990,13 +7294,13 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>452</v>
       </c>
       <c r="C165" t="s">
-        <v>165</v>
+        <v>740</v>
       </c>
       <c r="D165" t="s">
-        <v>453</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5004,13 +7308,13 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>453</v>
       </c>
       <c r="C166" t="s">
-        <v>166</v>
+        <v>741</v>
       </c>
       <c r="D166" t="s">
-        <v>454</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5018,13 +7322,13 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>454</v>
       </c>
       <c r="C167" t="s">
-        <v>167</v>
+        <v>742</v>
       </c>
       <c r="D167" t="s">
-        <v>455</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5032,13 +7336,13 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>455</v>
       </c>
       <c r="C168" t="s">
-        <v>168</v>
+        <v>743</v>
       </c>
       <c r="D168" t="s">
-        <v>456</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5046,13 +7350,13 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>456</v>
       </c>
       <c r="C169" t="s">
-        <v>169</v>
+        <v>744</v>
       </c>
       <c r="D169" t="s">
-        <v>457</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5060,13 +7364,13 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>457</v>
       </c>
       <c r="C170" t="s">
-        <v>170</v>
+        <v>745</v>
       </c>
       <c r="D170" t="s">
-        <v>458</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5074,13 +7378,13 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>458</v>
       </c>
       <c r="C171" t="s">
-        <v>171</v>
+        <v>746</v>
       </c>
       <c r="D171" t="s">
-        <v>459</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5088,13 +7392,13 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>459</v>
       </c>
       <c r="C172" t="s">
-        <v>172</v>
+        <v>747</v>
       </c>
       <c r="D172" t="s">
-        <v>460</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5102,13 +7406,13 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>460</v>
       </c>
       <c r="C173" t="s">
-        <v>173</v>
+        <v>748</v>
       </c>
       <c r="D173" t="s">
-        <v>461</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5116,13 +7420,13 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>461</v>
       </c>
       <c r="C174" t="s">
-        <v>174</v>
+        <v>749</v>
       </c>
       <c r="D174" t="s">
-        <v>462</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5130,13 +7434,13 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>462</v>
       </c>
       <c r="C175" t="s">
-        <v>175</v>
+        <v>750</v>
       </c>
       <c r="D175" t="s">
-        <v>463</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5144,13 +7448,13 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>463</v>
       </c>
       <c r="C176" t="s">
-        <v>176</v>
+        <v>751</v>
       </c>
       <c r="D176" t="s">
-        <v>464</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5158,13 +7462,13 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>464</v>
       </c>
       <c r="C177" t="s">
-        <v>177</v>
+        <v>752</v>
       </c>
       <c r="D177" t="s">
-        <v>465</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5172,13 +7476,13 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>465</v>
       </c>
       <c r="C178" t="s">
-        <v>178</v>
+        <v>753</v>
       </c>
       <c r="D178" t="s">
-        <v>466</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5186,13 +7490,13 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>466</v>
       </c>
       <c r="C179" t="s">
-        <v>179</v>
+        <v>754</v>
       </c>
       <c r="D179" t="s">
-        <v>467</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5200,13 +7504,13 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>467</v>
       </c>
       <c r="C180" t="s">
-        <v>180</v>
+        <v>755</v>
       </c>
       <c r="D180" t="s">
-        <v>468</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5214,13 +7518,13 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>468</v>
       </c>
       <c r="C181" t="s">
-        <v>181</v>
+        <v>756</v>
       </c>
       <c r="D181" t="s">
-        <v>469</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5228,13 +7532,13 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>469</v>
       </c>
       <c r="C182" t="s">
-        <v>182</v>
+        <v>757</v>
       </c>
       <c r="D182" t="s">
-        <v>470</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5242,13 +7546,13 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>470</v>
       </c>
       <c r="C183" t="s">
-        <v>183</v>
+        <v>758</v>
       </c>
       <c r="D183" t="s">
-        <v>471</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5256,13 +7560,13 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>471</v>
       </c>
       <c r="C184" t="s">
-        <v>184</v>
+        <v>759</v>
       </c>
       <c r="D184" t="s">
-        <v>472</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5270,13 +7574,13 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>472</v>
       </c>
       <c r="C185" t="s">
-        <v>185</v>
+        <v>760</v>
       </c>
       <c r="D185" t="s">
-        <v>473</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5284,13 +7588,13 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>473</v>
       </c>
       <c r="C186" t="s">
-        <v>186</v>
+        <v>761</v>
       </c>
       <c r="D186" t="s">
-        <v>474</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5298,13 +7602,13 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>474</v>
       </c>
       <c r="C187" t="s">
-        <v>187</v>
+        <v>762</v>
       </c>
       <c r="D187" t="s">
-        <v>475</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5312,13 +7616,13 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>475</v>
       </c>
       <c r="C188" t="s">
-        <v>188</v>
+        <v>763</v>
       </c>
       <c r="D188" t="s">
-        <v>476</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5326,13 +7630,13 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>476</v>
       </c>
       <c r="C189" t="s">
-        <v>189</v>
+        <v>764</v>
       </c>
       <c r="D189" t="s">
-        <v>477</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5340,13 +7644,13 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>477</v>
       </c>
       <c r="C190" t="s">
-        <v>190</v>
+        <v>765</v>
       </c>
       <c r="D190" t="s">
-        <v>478</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5354,13 +7658,13 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>478</v>
       </c>
       <c r="C191" t="s">
-        <v>191</v>
+        <v>766</v>
       </c>
       <c r="D191" t="s">
-        <v>479</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5368,13 +7672,13 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>479</v>
       </c>
       <c r="C192" t="s">
-        <v>192</v>
+        <v>767</v>
       </c>
       <c r="D192" t="s">
-        <v>480</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5382,13 +7686,13 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>480</v>
       </c>
       <c r="C193" t="s">
-        <v>193</v>
+        <v>768</v>
       </c>
       <c r="D193" t="s">
-        <v>481</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5396,13 +7700,13 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>481</v>
       </c>
       <c r="C194" t="s">
-        <v>194</v>
+        <v>769</v>
       </c>
       <c r="D194" t="s">
-        <v>482</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5410,13 +7714,13 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>482</v>
       </c>
       <c r="C195" t="s">
-        <v>195</v>
+        <v>770</v>
       </c>
       <c r="D195" t="s">
-        <v>483</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5424,13 +7728,13 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>483</v>
       </c>
       <c r="C196" t="s">
-        <v>196</v>
+        <v>771</v>
       </c>
       <c r="D196" t="s">
-        <v>484</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5438,13 +7742,13 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>484</v>
       </c>
       <c r="C197" t="s">
-        <v>197</v>
+        <v>772</v>
       </c>
       <c r="D197" t="s">
-        <v>485</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5452,13 +7756,13 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
+        <v>485</v>
       </c>
       <c r="C198" t="s">
-        <v>198</v>
+        <v>773</v>
       </c>
       <c r="D198" t="s">
-        <v>486</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5466,13 +7770,13 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
+        <v>486</v>
       </c>
       <c r="C199" t="s">
-        <v>199</v>
+        <v>774</v>
       </c>
       <c r="D199" t="s">
-        <v>487</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5480,13 +7784,13 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>487</v>
       </c>
       <c r="C200" t="s">
-        <v>200</v>
+        <v>775</v>
       </c>
       <c r="D200" t="s">
-        <v>488</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5494,13 +7798,13 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
+        <v>488</v>
       </c>
       <c r="C201" t="s">
-        <v>201</v>
+        <v>776</v>
       </c>
       <c r="D201" t="s">
-        <v>489</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5508,13 +7812,13 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>489</v>
       </c>
       <c r="C202" t="s">
-        <v>202</v>
+        <v>777</v>
       </c>
       <c r="D202" t="s">
-        <v>490</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5522,13 +7826,13 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>490</v>
       </c>
       <c r="C203" t="s">
-        <v>203</v>
+        <v>778</v>
       </c>
       <c r="D203" t="s">
-        <v>491</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5536,13 +7840,13 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>491</v>
       </c>
       <c r="C204" t="s">
-        <v>204</v>
+        <v>779</v>
       </c>
       <c r="D204" t="s">
-        <v>492</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5550,13 +7854,13 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
+        <v>492</v>
       </c>
       <c r="C205" t="s">
-        <v>205</v>
+        <v>780</v>
       </c>
       <c r="D205" t="s">
-        <v>493</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5564,13 +7868,13 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>493</v>
       </c>
       <c r="C206" t="s">
-        <v>206</v>
+        <v>781</v>
       </c>
       <c r="D206" t="s">
-        <v>494</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5578,13 +7882,13 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
+        <v>494</v>
       </c>
       <c r="C207" t="s">
-        <v>207</v>
+        <v>782</v>
       </c>
       <c r="D207" t="s">
-        <v>495</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5592,13 +7896,13 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>495</v>
       </c>
       <c r="C208" t="s">
-        <v>208</v>
+        <v>783</v>
       </c>
       <c r="D208" t="s">
-        <v>496</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5606,13 +7910,13 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>496</v>
       </c>
       <c r="C209" t="s">
-        <v>209</v>
+        <v>784</v>
       </c>
       <c r="D209" t="s">
-        <v>497</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5620,13 +7924,13 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>497</v>
       </c>
       <c r="C210" t="s">
-        <v>210</v>
+        <v>785</v>
       </c>
       <c r="D210" t="s">
-        <v>498</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5634,13 +7938,13 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>498</v>
       </c>
       <c r="C211" t="s">
-        <v>211</v>
+        <v>786</v>
       </c>
       <c r="D211" t="s">
-        <v>499</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5648,13 +7952,13 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
+        <v>499</v>
       </c>
       <c r="C212" t="s">
-        <v>212</v>
+        <v>787</v>
       </c>
       <c r="D212" t="s">
-        <v>500</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5662,13 +7966,13 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>500</v>
       </c>
       <c r="C213" t="s">
-        <v>213</v>
+        <v>788</v>
       </c>
       <c r="D213" t="s">
-        <v>501</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5676,13 +7980,13 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>501</v>
       </c>
       <c r="C214" t="s">
-        <v>214</v>
+        <v>789</v>
       </c>
       <c r="D214" t="s">
-        <v>502</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5690,13 +7994,13 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
+        <v>502</v>
       </c>
       <c r="C215" t="s">
-        <v>215</v>
+        <v>790</v>
       </c>
       <c r="D215" t="s">
-        <v>503</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5704,13 +8008,13 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>503</v>
       </c>
       <c r="C216" t="s">
-        <v>216</v>
+        <v>791</v>
       </c>
       <c r="D216" t="s">
-        <v>504</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5718,13 +8022,13 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>504</v>
       </c>
       <c r="C217" t="s">
-        <v>217</v>
+        <v>792</v>
       </c>
       <c r="D217" t="s">
-        <v>505</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5732,13 +8036,13 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>505</v>
       </c>
       <c r="C218" t="s">
-        <v>218</v>
+        <v>793</v>
       </c>
       <c r="D218" t="s">
-        <v>506</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5746,13 +8050,13 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>506</v>
       </c>
       <c r="C219" t="s">
-        <v>219</v>
+        <v>794</v>
       </c>
       <c r="D219" t="s">
-        <v>507</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5760,13 +8064,13 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>507</v>
       </c>
       <c r="C220" t="s">
-        <v>220</v>
+        <v>795</v>
       </c>
       <c r="D220" t="s">
-        <v>508</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5774,13 +8078,13 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
+        <v>508</v>
       </c>
       <c r="C221" t="s">
-        <v>221</v>
+        <v>796</v>
       </c>
       <c r="D221" t="s">
-        <v>509</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5788,13 +8092,13 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>509</v>
       </c>
       <c r="C222" t="s">
-        <v>222</v>
+        <v>797</v>
       </c>
       <c r="D222" t="s">
-        <v>510</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5802,13 +8106,13 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>510</v>
       </c>
       <c r="C223" t="s">
-        <v>223</v>
+        <v>798</v>
       </c>
       <c r="D223" t="s">
-        <v>511</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5816,13 +8120,13 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
+        <v>511</v>
       </c>
       <c r="C224" t="s">
-        <v>224</v>
+        <v>799</v>
       </c>
       <c r="D224" t="s">
-        <v>512</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5830,13 +8134,13 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
+        <v>512</v>
       </c>
       <c r="C225" t="s">
-        <v>225</v>
+        <v>800</v>
       </c>
       <c r="D225" t="s">
-        <v>513</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5844,13 +8148,13 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
+        <v>513</v>
       </c>
       <c r="C226" t="s">
-        <v>226</v>
+        <v>801</v>
       </c>
       <c r="D226" t="s">
-        <v>514</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5858,13 +8162,13 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
+        <v>514</v>
       </c>
       <c r="C227" t="s">
-        <v>227</v>
+        <v>802</v>
       </c>
       <c r="D227" t="s">
-        <v>515</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5872,13 +8176,13 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
+        <v>515</v>
       </c>
       <c r="C228" t="s">
-        <v>228</v>
+        <v>803</v>
       </c>
       <c r="D228" t="s">
-        <v>516</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5886,13 +8190,13 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
+        <v>516</v>
       </c>
       <c r="C229" t="s">
-        <v>229</v>
+        <v>804</v>
       </c>
       <c r="D229" t="s">
-        <v>369</v>
+        <v>945</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5900,13 +8204,13 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>517</v>
       </c>
       <c r="C230" t="s">
-        <v>230</v>
+        <v>805</v>
       </c>
       <c r="D230" t="s">
-        <v>517</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5914,13 +8218,13 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
+        <v>374</v>
       </c>
       <c r="C231" t="s">
-        <v>231</v>
+        <v>806</v>
       </c>
       <c r="D231" t="s">
-        <v>518</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5928,13 +8232,13 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
+        <v>518</v>
       </c>
       <c r="C232" t="s">
-        <v>232</v>
+        <v>807</v>
       </c>
       <c r="D232" t="s">
-        <v>519</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5942,13 +8246,13 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
+        <v>519</v>
       </c>
       <c r="C233" t="s">
-        <v>233</v>
+        <v>808</v>
       </c>
       <c r="D233" t="s">
-        <v>520</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5956,13 +8260,13 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
+        <v>520</v>
       </c>
       <c r="C234" t="s">
-        <v>234</v>
+        <v>809</v>
       </c>
       <c r="D234" t="s">
-        <v>521</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5970,13 +8274,13 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
+        <v>521</v>
       </c>
       <c r="C235" t="s">
-        <v>235</v>
+        <v>810</v>
       </c>
       <c r="D235" t="s">
-        <v>522</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5984,13 +8288,13 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>236</v>
+        <v>522</v>
       </c>
       <c r="C236" t="s">
-        <v>236</v>
+        <v>811</v>
       </c>
       <c r="D236" t="s">
-        <v>523</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5998,13 +8302,13 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>237</v>
+        <v>523</v>
       </c>
       <c r="C237" t="s">
-        <v>237</v>
+        <v>812</v>
       </c>
       <c r="D237" t="s">
-        <v>524</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6012,13 +8316,13 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>238</v>
+        <v>524</v>
       </c>
       <c r="C238" t="s">
-        <v>238</v>
+        <v>813</v>
       </c>
       <c r="D238" t="s">
-        <v>525</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6026,13 +8330,13 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>239</v>
+        <v>525</v>
       </c>
       <c r="C239" t="s">
-        <v>239</v>
+        <v>814</v>
       </c>
       <c r="D239" t="s">
-        <v>526</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6040,13 +8344,13 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>240</v>
+        <v>526</v>
       </c>
       <c r="C240" t="s">
-        <v>240</v>
+        <v>815</v>
       </c>
       <c r="D240" t="s">
-        <v>527</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6054,13 +8358,13 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
+        <v>527</v>
       </c>
       <c r="C241" t="s">
-        <v>241</v>
+        <v>816</v>
       </c>
       <c r="D241" t="s">
-        <v>528</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6068,13 +8372,13 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>242</v>
+        <v>528</v>
       </c>
       <c r="C242" t="s">
-        <v>242</v>
+        <v>817</v>
       </c>
       <c r="D242" t="s">
-        <v>382</v>
+        <v>958</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6082,13 +8386,13 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>243</v>
+        <v>529</v>
       </c>
       <c r="C243" t="s">
-        <v>243</v>
+        <v>818</v>
       </c>
       <c r="D243" t="s">
-        <v>529</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6096,13 +8400,13 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
+        <v>530</v>
       </c>
       <c r="C244" t="s">
-        <v>244</v>
+        <v>819</v>
       </c>
       <c r="D244" t="s">
-        <v>530</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6110,13 +8414,13 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>245</v>
+        <v>531</v>
       </c>
       <c r="C245" t="s">
-        <v>245</v>
+        <v>820</v>
       </c>
       <c r="D245" t="s">
-        <v>531</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6124,13 +8428,13 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>246</v>
+        <v>532</v>
       </c>
       <c r="C246" t="s">
-        <v>246</v>
+        <v>821</v>
       </c>
       <c r="D246" t="s">
-        <v>532</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6138,13 +8442,13 @@
         <v>94</v>
       </c>
       <c r="B247" t="s">
-        <v>94</v>
+        <v>382</v>
       </c>
       <c r="C247" t="s">
-        <v>94</v>
+        <v>669</v>
       </c>
       <c r="D247" t="s">
-        <v>382</v>
+        <v>958</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6152,13 +8456,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>533</v>
       </c>
       <c r="C248" t="s">
-        <v>247</v>
+        <v>822</v>
       </c>
       <c r="D248" t="s">
-        <v>533</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6166,13 +8470,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>248</v>
+        <v>534</v>
       </c>
       <c r="C249" t="s">
-        <v>248</v>
+        <v>823</v>
       </c>
       <c r="D249" t="s">
-        <v>534</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6180,13 +8484,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>249</v>
+        <v>535</v>
       </c>
       <c r="C250" t="s">
-        <v>249</v>
+        <v>824</v>
       </c>
       <c r="D250" t="s">
-        <v>535</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6194,13 +8498,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>250</v>
+        <v>536</v>
       </c>
       <c r="C251" t="s">
-        <v>250</v>
+        <v>825</v>
       </c>
       <c r="D251" t="s">
-        <v>536</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6208,13 +8512,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>251</v>
+        <v>537</v>
       </c>
       <c r="C252" t="s">
-        <v>251</v>
+        <v>826</v>
       </c>
       <c r="D252" t="s">
-        <v>537</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6222,13 +8526,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>538</v>
       </c>
       <c r="C253" t="s">
-        <v>252</v>
+        <v>827</v>
       </c>
       <c r="D253" t="s">
-        <v>538</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6236,13 +8540,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>253</v>
+        <v>539</v>
       </c>
       <c r="C254" t="s">
-        <v>253</v>
+        <v>828</v>
       </c>
       <c r="D254" t="s">
-        <v>539</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6250,13 +8554,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>254</v>
+        <v>540</v>
       </c>
       <c r="C255" t="s">
-        <v>254</v>
+        <v>829</v>
       </c>
       <c r="D255" t="s">
-        <v>540</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6264,13 +8568,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>255</v>
+        <v>541</v>
       </c>
       <c r="C256" t="s">
-        <v>255</v>
+        <v>830</v>
       </c>
       <c r="D256" t="s">
-        <v>541</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6278,13 +8582,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>542</v>
       </c>
       <c r="C257" t="s">
-        <v>256</v>
+        <v>831</v>
       </c>
       <c r="D257" t="s">
-        <v>542</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6292,13 +8596,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>257</v>
+        <v>543</v>
       </c>
       <c r="C258" t="s">
-        <v>257</v>
+        <v>832</v>
       </c>
       <c r="D258" t="s">
-        <v>543</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6306,13 +8610,13 @@
         <v>54</v>
       </c>
       <c r="B259" t="s">
-        <v>54</v>
+        <v>544</v>
       </c>
       <c r="C259" t="s">
-        <v>54</v>
+        <v>833</v>
       </c>
       <c r="D259" t="s">
-        <v>342</v>
+        <v>918</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6320,13 +8624,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>258</v>
+        <v>545</v>
       </c>
       <c r="C260" t="s">
-        <v>258</v>
+        <v>834</v>
       </c>
       <c r="D260" t="s">
-        <v>544</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6334,13 +8638,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>259</v>
+        <v>546</v>
       </c>
       <c r="C261" t="s">
-        <v>259</v>
+        <v>835</v>
       </c>
       <c r="D261" t="s">
-        <v>545</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6348,13 +8652,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>260</v>
+        <v>547</v>
       </c>
       <c r="C262" t="s">
-        <v>260</v>
+        <v>836</v>
       </c>
       <c r="D262" t="s">
-        <v>546</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6362,13 +8666,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>261</v>
+        <v>548</v>
       </c>
       <c r="C263" t="s">
-        <v>261</v>
+        <v>837</v>
       </c>
       <c r="D263" t="s">
-        <v>547</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6376,13 +8680,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>262</v>
+        <v>549</v>
       </c>
       <c r="C264" t="s">
-        <v>262</v>
+        <v>838</v>
       </c>
       <c r="D264" t="s">
-        <v>548</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6390,13 +8694,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>263</v>
+        <v>550</v>
       </c>
       <c r="C265" t="s">
-        <v>263</v>
+        <v>839</v>
       </c>
       <c r="D265" t="s">
-        <v>549</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6404,13 +8708,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>264</v>
+        <v>551</v>
       </c>
       <c r="C266" t="s">
-        <v>264</v>
+        <v>840</v>
       </c>
       <c r="D266" t="s">
-        <v>518</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6418,13 +8722,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>265</v>
+        <v>552</v>
       </c>
       <c r="C267" t="s">
-        <v>265</v>
+        <v>841</v>
       </c>
       <c r="D267" t="s">
-        <v>550</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6432,13 +8736,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>266</v>
+        <v>553</v>
       </c>
       <c r="C268" t="s">
-        <v>266</v>
+        <v>842</v>
       </c>
       <c r="D268" t="s">
-        <v>551</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6446,13 +8750,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>267</v>
+        <v>554</v>
       </c>
       <c r="C269" t="s">
-        <v>267</v>
+        <v>843</v>
       </c>
       <c r="D269" t="s">
-        <v>552</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6460,13 +8764,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>268</v>
+        <v>555</v>
       </c>
       <c r="C270" t="s">
-        <v>268</v>
+        <v>844</v>
       </c>
       <c r="D270" t="s">
-        <v>553</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6474,13 +8778,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>269</v>
+        <v>556</v>
       </c>
       <c r="C271" t="s">
-        <v>269</v>
+        <v>845</v>
       </c>
       <c r="D271" t="s">
-        <v>554</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6488,13 +8792,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>270</v>
+        <v>557</v>
       </c>
       <c r="C272" t="s">
-        <v>270</v>
+        <v>846</v>
       </c>
       <c r="D272" t="s">
-        <v>555</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6502,13 +8806,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>271</v>
+        <v>558</v>
       </c>
       <c r="C273" t="s">
-        <v>271</v>
+        <v>847</v>
       </c>
       <c r="D273" t="s">
-        <v>556</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6516,13 +8820,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>272</v>
+        <v>559</v>
       </c>
       <c r="C274" t="s">
-        <v>272</v>
+        <v>848</v>
       </c>
       <c r="D274" t="s">
-        <v>557</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6530,13 +8834,13 @@
         <v>80</v>
       </c>
       <c r="B275" t="s">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="C275" t="s">
-        <v>80</v>
+        <v>655</v>
       </c>
       <c r="D275" t="s">
-        <v>558</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6544,13 +8848,13 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>273</v>
+        <v>561</v>
       </c>
       <c r="C276" t="s">
-        <v>273</v>
+        <v>849</v>
       </c>
       <c r="D276" t="s">
-        <v>559</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6558,13 +8862,13 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>274</v>
+        <v>562</v>
       </c>
       <c r="C277" t="s">
-        <v>274</v>
+        <v>850</v>
       </c>
       <c r="D277" t="s">
-        <v>560</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6572,13 +8876,13 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>275</v>
+        <v>563</v>
       </c>
       <c r="C278" t="s">
-        <v>275</v>
+        <v>851</v>
       </c>
       <c r="D278" t="s">
-        <v>561</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6586,13 +8890,13 @@
         <v>229</v>
       </c>
       <c r="B279" t="s">
-        <v>229</v>
+        <v>516</v>
       </c>
       <c r="C279" t="s">
-        <v>229</v>
+        <v>804</v>
       </c>
       <c r="D279" t="s">
-        <v>562</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6600,13 +8904,13 @@
         <v>276</v>
       </c>
       <c r="B280" t="s">
-        <v>276</v>
+        <v>564</v>
       </c>
       <c r="C280" t="s">
-        <v>276</v>
+        <v>852</v>
       </c>
       <c r="D280" t="s">
-        <v>563</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6614,13 +8918,13 @@
         <v>277</v>
       </c>
       <c r="B281" t="s">
-        <v>277</v>
+        <v>382</v>
       </c>
       <c r="C281" t="s">
-        <v>277</v>
+        <v>853</v>
       </c>
       <c r="D281" t="s">
-        <v>564</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6628,13 +8932,13 @@
         <v>278</v>
       </c>
       <c r="B282" t="s">
-        <v>278</v>
+        <v>565</v>
       </c>
       <c r="C282" t="s">
-        <v>278</v>
+        <v>854</v>
       </c>
       <c r="D282" t="s">
-        <v>565</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6642,13 +8946,13 @@
         <v>279</v>
       </c>
       <c r="B283" t="s">
-        <v>279</v>
+        <v>566</v>
       </c>
       <c r="C283" t="s">
-        <v>279</v>
+        <v>855</v>
       </c>
       <c r="D283" t="s">
-        <v>566</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6656,13 +8960,13 @@
         <v>280</v>
       </c>
       <c r="B284" t="s">
-        <v>280</v>
+        <v>567</v>
       </c>
       <c r="C284" t="s">
-        <v>280</v>
+        <v>856</v>
       </c>
       <c r="D284" t="s">
-        <v>567</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6670,13 +8974,13 @@
         <v>281</v>
       </c>
       <c r="B285" t="s">
-        <v>281</v>
+        <v>568</v>
       </c>
       <c r="C285" t="s">
-        <v>281</v>
+        <v>857</v>
       </c>
       <c r="D285" t="s">
-        <v>568</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6684,13 +8988,13 @@
         <v>282</v>
       </c>
       <c r="B286" t="s">
-        <v>282</v>
+        <v>569</v>
       </c>
       <c r="C286" t="s">
-        <v>282</v>
+        <v>858</v>
       </c>
       <c r="D286" t="s">
-        <v>569</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6698,13 +9002,13 @@
         <v>283</v>
       </c>
       <c r="B287" t="s">
-        <v>283</v>
+        <v>570</v>
       </c>
       <c r="C287" t="s">
-        <v>283</v>
+        <v>859</v>
       </c>
       <c r="D287" t="s">
-        <v>570</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6712,13 +9016,13 @@
         <v>284</v>
       </c>
       <c r="B288" t="s">
-        <v>284</v>
+        <v>571</v>
       </c>
       <c r="C288" t="s">
-        <v>284</v>
+        <v>860</v>
       </c>
       <c r="D288" t="s">
-        <v>571</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6726,13 +9030,13 @@
         <v>285</v>
       </c>
       <c r="B289" t="s">
-        <v>285</v>
+        <v>572</v>
       </c>
       <c r="C289" t="s">
-        <v>285</v>
+        <v>861</v>
       </c>
       <c r="D289" t="s">
-        <v>572</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6740,13 +9044,13 @@
         <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>286</v>
+        <v>573</v>
       </c>
       <c r="C290" t="s">
-        <v>286</v>
+        <v>862</v>
       </c>
       <c r="D290" t="s">
-        <v>573</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6754,13 +9058,13 @@
         <v>287</v>
       </c>
       <c r="B291" t="s">
-        <v>287</v>
+        <v>574</v>
       </c>
       <c r="C291" t="s">
-        <v>287</v>
+        <v>863</v>
       </c>
       <c r="D291" t="s">
-        <v>574</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6768,13 +9072,13 @@
         <v>288</v>
       </c>
       <c r="B292" t="s">
-        <v>288</v>
+        <v>575</v>
       </c>
       <c r="C292" t="s">
-        <v>288</v>
+        <v>864</v>
       </c>
       <c r="D292" t="s">
-        <v>575</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6782,13 +9086,13 @@
         <v>289</v>
       </c>
       <c r="B293" t="s">
-        <v>289</v>
+        <v>576</v>
       </c>
       <c r="C293" t="s">
-        <v>289</v>
+        <v>865</v>
       </c>
       <c r="D293" t="s">
-        <v>576</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6796,13 +9100,13 @@
         <v>290</v>
       </c>
       <c r="B294" t="s">
-        <v>290</v>
+        <v>577</v>
       </c>
       <c r="C294" t="s">
-        <v>290</v>
+        <v>866</v>
       </c>
       <c r="D294" t="s">
-        <v>577</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6810,13 +9114,13 @@
         <v>291</v>
       </c>
       <c r="B295" t="s">
-        <v>291</v>
+        <v>578</v>
       </c>
       <c r="C295" t="s">
-        <v>291</v>
+        <v>867</v>
       </c>
       <c r="D295" t="s">
-        <v>578</v>
+        <v>1154</v>
       </c>
     </row>
   </sheetData>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_fmout_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_fmout_1_1.xlsx
@@ -2848,7 +2848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  That's how it goes more or less every month. Sometimes I blunder decidin', 'n then I don't earn nothin'. Pain in my keister.
+    <t xml:space="preserve">[name="Croissant"]  That's how it goes more or less every month. Sometimes I blunder decidin', 'n then I don't earn nothin.' Pain in my keister.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_fmout_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_fmout_1_1.xlsx
@@ -4080,7 +4080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="크루아상"]  흑흑. 응…….
+    <t xml:space="preserve">[name="크루아상"]  흑흑. 응……
 </t>
   </si>
   <si>
@@ -4220,7 +4220,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="기타노"]  그럼 난 퍼퓨머한테 가서 아로마 테라피나 받아야겠군 그래.
+    <t xml:space="preserve">[name="기타노"]  그럼 난 퍼퓨머한테 가서 아로마 테라피나 받아야겠군그래.
 </t>
   </si>
   <si>
